--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106464.1215326514</v>
+        <v>98820.0596786213</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426642</v>
+        <v>10494200.71426641</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3521491.307620301</v>
+        <v>3521491.307620302</v>
       </c>
     </row>
     <row r="11">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.8891084057991</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="C8" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D8" t="n">
-        <v>119.0839105424604</v>
+        <v>30.70785528783203</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809192</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656966</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>119.0839105424604</v>
+        <v>22.33910840579977</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W9" t="n">
-        <v>43.00733401359794</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.8891084057991</v>
+        <v>91.32747982963575</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616405</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424604</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.0839105424604</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>412.6473898085249</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.4966139980448</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.42811009354853</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>126.0809427646068</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>303.9166067807495</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>277.9990394368045</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>153.3620349323721</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>384.7147587462379</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>296.8090487387318</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>17.7512391430302</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>358.0685425954623</v>
       </c>
       <c r="Y20" t="n">
-        <v>361.464905015728</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>74.4281100935485</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>342.0215306365637</v>
       </c>
       <c r="G23" t="n">
-        <v>221.2992638288012</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2484,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>156.0367594981252</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>109.5540470185023</v>
       </c>
       <c r="Y26" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>34.64620011913429</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>31.66775530976492</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>112.7459821100542</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>361.464905015728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>146.391735625387</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5540470185014</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>176.1446634785932</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3195,13 +3195,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>113.3188936068757</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>138.6494098073856</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -3243,10 +3243,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>112.8211273008748</v>
+        <v>130.7837217554832</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.61165322604631</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>61.19617440684119</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>136.0829573912423</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>29.17160265248819</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -3556,16 +3556,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370093</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>32.01788871693632</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>89.27698216766615</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -3796,13 +3796,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>171.1196125016818</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>61.45286406732441</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>6.12293108676132</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>252.0430507630239</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>105.5188043066317</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>168.4424908234483</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>11.45461388085713</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.1002694948321</v>
+        <v>160.83152681339</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8134911691145</v>
+        <v>40.54474848767167</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I8" t="n">
         <v>23.57954741585568</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558015</v>
+        <v>55.41632306558032</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318066</v>
+        <v>103.1313969318071</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183089</v>
+        <v>162.3261653183097</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590922</v>
+        <v>228.1917507590935</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326569</v>
+        <v>295.1231102326586</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336409</v>
+        <v>358.324495033643</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455653</v>
+        <v>412.2654147455677</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244994</v>
+        <v>452.7727990245021</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698418</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698418</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698418</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698418</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698418</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="W8" t="n">
-        <v>476.3356421698418</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="X8" t="n">
-        <v>476.3356421698418</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="Y8" t="n">
-        <v>356.0488638441241</v>
+        <v>281.1183051391084</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="F9" t="n">
-        <v>49.2846676596513</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="G9" t="n">
-        <v>49.2846676596513</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160436</v>
+        <v>42.50045791160446</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367914</v>
+        <v>67.7089975236795</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029949</v>
+        <v>100.1176749029955</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186841</v>
+        <v>143.695141118685</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887760998</v>
+        <v>194.547988776101</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936365</v>
+        <v>246.746759993638</v>
       </c>
       <c r="O9" t="n">
-        <v>294.498437799969</v>
+        <v>294.4984377999708</v>
       </c>
       <c r="P9" t="n">
-        <v>332.823369101831</v>
+        <v>332.823369101833</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.442570732806</v>
+        <v>358.4425707328082</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698418</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238118</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="T9" t="n">
-        <v>296.3970358980941</v>
+        <v>453.7708862043904</v>
       </c>
       <c r="U9" t="n">
-        <v>296.3970358980941</v>
+        <v>333.484107878672</v>
       </c>
       <c r="V9" t="n">
-        <v>176.1102575723765</v>
+        <v>213.1973295529536</v>
       </c>
       <c r="W9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="X9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.6685060434897</v>
+        <v>92.91055122723527</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396835</v>
+        <v>370.387047820552</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396835</v>
+        <v>370.387047820552</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396835</v>
+        <v>370.387047820552</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396835</v>
+        <v>250.1002694948336</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396835</v>
+        <v>250.1002694948336</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396835</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396835</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>43.65210454220981</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760667</v>
+        <v>63.20089061716173</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6426948995723</v>
+        <v>88.21660638161899</v>
       </c>
       <c r="M10" t="n">
-        <v>191.0182597110272</v>
+        <v>206.1096778186555</v>
       </c>
       <c r="N10" t="n">
-        <v>216.7666725435518</v>
+        <v>324.0027492556921</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5494992957701</v>
+        <v>441.8958206927287</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732806</v>
+        <v>462.2461375895331</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698418</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698418</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698418</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698418</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="U10" t="n">
-        <v>476.3356421698418</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="V10" t="n">
-        <v>356.0488638441241</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="W10" t="n">
-        <v>235.7620855184065</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="X10" t="n">
-        <v>235.7620855184065</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.4753071926888</v>
+        <v>462.6370274464467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1128.043535737734</v>
+        <v>1133.246339586703</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
         <v>716.4307943255671</v>
@@ -5035,7 +5035,7 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001352</v>
@@ -5047,7 +5047,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.32965943808</v>
+        <v>1133.246339586703</v>
       </c>
       <c r="Y11" t="n">
-        <v>1128.043535737734</v>
+        <v>1133.246339586703</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,10 +5111,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>730.9745012407179</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C13" t="n">
-        <v>558.4127897239429</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>733.422710770687</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180194</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2232.97308980672</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1954.586457855462</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.630949725893</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1395.604545312184</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.212790645597</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>922.7931199597051</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1062.057047317327</v>
+        <v>1035.877686363848</v>
       </c>
       <c r="C14" t="n">
-        <v>623.9145745007509</v>
+        <v>597.7352135472711</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>597.7352135472711</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>597.7352135472711</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>597.7352135472711</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O14" t="n">
         <v>1775.96950697326</v>
@@ -5299,31 +5299,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V14" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W14" t="n">
-        <v>1889.485634438363</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X14" t="n">
-        <v>1470.343171017674</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y14" t="n">
-        <v>1062.057047317327</v>
+        <v>1035.877686363848</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043086</v>
@@ -5399,10 +5399,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>299.093514772602</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2155219741246</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>733.4227107706872</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376306</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
@@ -5466,22 +5466,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2060.989892555636</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2060.989892555636</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1774.034384426067</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1502.007980012359</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1532.898990326701</v>
+        <v>616.7352229431573</v>
       </c>
       <c r="C17" t="n">
-        <v>1532.898990326701</v>
+        <v>616.7352229431573</v>
       </c>
       <c r="D17" t="n">
-        <v>1532.898990326701</v>
+        <v>616.7352229431573</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>616.7352229431573</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>616.7352229431573</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
@@ -5512,13 +5512,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
         <v>805.440802286702</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.185114027047</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y17" t="n">
-        <v>1532.898990326701</v>
+        <v>616.7352229431573</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.6552262893761</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C19" t="n">
-        <v>299.0935147726011</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741237</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895473</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895473</v>
@@ -5679,13 +5679,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527956</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083632</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="20">
@@ -5746,31 +5746,31 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5788,13 +5788,13 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586986</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X20" t="n">
-        <v>1081.54685999802</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y20" t="n">
         <v>716.4307943255671</v>
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.6552262893761</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>299.0935147726011</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D22" t="n">
-        <v>223.9136055871985</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E22" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,7 +5937,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083632</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1578.568163960874</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.425691144297</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="D23" t="n">
-        <v>704.5159063187416</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="E23" t="n">
-        <v>270.7411614770368</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="F23" t="n">
-        <v>270.7411614770368</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>1997.710627381563</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>1578.568163960874</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.568163960874</v>
+        <v>662.4043965773309</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.6552262893761</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C25" t="n">
-        <v>299.0935147726011</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D25" t="n">
-        <v>133.2155219741237</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895473</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
@@ -6153,19 +6153,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>862.082053811994</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>992.6864461505235</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1120.185357954413</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X25" t="n">
-        <v>890.893515694255</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083632</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X26" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
         <v>2209.200554108492</v>
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.0941331591162</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C28" t="n">
-        <v>584.0941331591162</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D28" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698901</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698901</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
         <v>242.6458987333908</v>
@@ -6381,55 +6381,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L28" t="n">
-        <v>828.1746199579902</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.355695376305</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2328.339945821711</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2086.092721725118</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U28" t="n">
-        <v>1807.706089773861</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V28" t="n">
-        <v>1520.750581644291</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1248.724177230583</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1003.332422563995</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>775.9127518781033</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>1300.497463086501</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>864.5876782609453</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>430.8129334192404</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>430.8129334192404</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586986</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W29" t="n">
-        <v>1081.54685999802</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X29" t="n">
-        <v>1081.54685999802</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y29" t="n">
-        <v>716.4307943255671</v>
+        <v>1738.639935903077</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6548,7 +6548,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
         <v>803.387703298788</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683665</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1893.561637177626</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C32" t="n">
-        <v>1455.419164361049</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D32" t="n">
-        <v>1019.509379535494</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E32" t="n">
-        <v>585.7346346937888</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F32" t="n">
-        <v>157.8672051029966</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895473</v>
@@ -6703,16 +6703,16 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
         <v>1775.969506973259</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="X32" t="n">
-        <v>2319.861207662534</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2319.861207662534</v>
+        <v>2182.403674944107</v>
       </c>
     </row>
     <row r="33">
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1036.997366370203</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C34" t="n">
-        <v>864.4356548534275</v>
+        <v>718.33180417748</v>
       </c>
       <c r="D34" t="n">
-        <v>698.5576620549502</v>
+        <v>552.4538113790027</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>382.6958076297399</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>382.6958076297399</v>
       </c>
       <c r="G34" t="n">
         <v>242.6458987333908</v>
@@ -6858,25 +6858,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6891,19 +6891,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1973.653814855378</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1701.627410441669</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1456.235655775082</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1228.81598508919</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1582.440696732936</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>1144.298223916359</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>1144.298223916359</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1987.296151321903</v>
+        <v>2187.756438212551</v>
       </c>
       <c r="W35" t="n">
-        <v>1582.440696732936</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X35" t="n">
-        <v>1582.440696732936</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y35" t="n">
-        <v>1582.440696732936</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>807.9003835041287</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>635.3386719873537</v>
       </c>
       <c r="D37" t="n">
-        <v>443.520053268367</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191042</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>273.7620495191042</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>109.0208691316226</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>588.0160255186818</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>718.6204178572112</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818745</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7131,16 +7131,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>914.3179809915979</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C38" t="n">
-        <v>476.1755081750212</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D38" t="n">
-        <v>476.1755081750212</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E38" t="n">
-        <v>476.1755081750212</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
         <v>446.7092428694776</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>1745.473006065472</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>1340.617551476506</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>1340.617551476506</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y38" t="n">
-        <v>1340.617551476506</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>992.2890823372263</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C40" t="n">
-        <v>819.7273708204513</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>653.849378021974</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>484.0913742727112</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>307.3843202344674</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G40" t="n">
-        <v>142.6431398469858</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>128.4493606708742</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>225.2494612384324</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>767.3301446246915</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>897.9345369632208</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N40" t="n">
-        <v>1467.692251924755</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
         <v>2105.896438675981</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2215.901038951971</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1928.945530822401</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1656.919126408693</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.527371742105</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1184.107701056214</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1308.351417301975</v>
+        <v>972.7977975613625</v>
       </c>
       <c r="C41" t="n">
-        <v>1308.351417301975</v>
+        <v>972.7977975613625</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.351417301975</v>
+        <v>536.888012735807</v>
       </c>
       <c r="E41" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
         <v>446.7092428694776</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001362</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7444,19 +7444,19 @@
         <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>1889.485634438363</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.637541002321</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X41" t="n">
-        <v>1716.637541002321</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.351417301975</v>
+        <v>972.7977975613625</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391952</v>
+        <v>807.9003835041292</v>
       </c>
       <c r="C43" t="n">
-        <v>724.2907825224202</v>
+        <v>635.3386719873541</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239429</v>
+        <v>469.4606791888768</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>469.4606791888768</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7578,16 +7578,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7605,16 +7605,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1173.712709371907</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>735.5702365553302</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>735.5702365553302</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>301.7954917136254</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>301.7954917136254</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>301.7954917136254</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.855172792596</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.712709371907</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>1173.712709371907</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>743.6816307030845</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>571.1199191863094</v>
+        <v>445.9378346604467</v>
       </c>
       <c r="D46" t="n">
-        <v>405.2419263878321</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E46" t="n">
-        <v>235.4839226385694</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F46" t="n">
-        <v>58.77686860032557</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,19 +7812,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>828.1746199579898</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180194</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.311674774551</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1162.919920107963</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>935.5002494220716</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>6.309872867521833</v>
+        <v>6.30987286752196</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.497025394663</v>
+        <v>106.4970253946636</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>22.45392869271178</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1977704636854</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>92.44192588442576</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>93.07541273183017</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698794</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912279</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.852087734065</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825018</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>45.75904403825029</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173442</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>141.4680432173438</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>175.7179764032068</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>45.75904403825098</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>141.4680432173443</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>158.2045317475402</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>192.4544649334022</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>141.4680432173438</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>263.8716243249372</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>22.56277315124888</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11226,13 +11226,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11460,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>141.4680432173438</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.1474663742596</v>
+        <v>302.9526642375975</v>
       </c>
       <c r="C8" t="n">
-        <v>314.6771375459505</v>
+        <v>314.6771375459497</v>
       </c>
       <c r="D8" t="n">
-        <v>312.4667764348395</v>
+        <v>400.8428316894679</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796777</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23089,7 +23089,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1193519208827</v>
+        <v>285.1193519208819</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>8.975812792898243</v>
+        <v>105.7206149295589</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518696</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221616019</v>
+        <v>78.04243221615945</v>
       </c>
       <c r="W9" t="n">
-        <v>140.46219271054</v>
+        <v>64.38561618167674</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.01132412599816</v>
+        <v>98.57295270216149</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23187,19 +23187,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>48.97651316930893</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>44.68149179608042</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.90814412952773</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742792</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616409</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23238,16 +23238,16 @@
         <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058134</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271109</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365724</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>21.11365827988601</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,7 +23269,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>16.09214129683949</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,7 +23317,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>89.791102776944</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>113.7438090910207</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>127.6340801965504</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>117.5086249705131</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>86.46271692325536</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>44.72223864704989</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>98.69861566858577</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>113.2693808714471</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>56.8824961910201</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.73835744761504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>89.79110277694403</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>93.63231361822072</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>81.56722465832064</v>
       </c>
       <c r="G23" t="n">
-        <v>174.2084005785164</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.2693808714461</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24508,10 +24508,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679801</v>
       </c>
       <c r="Y26" t="n">
-        <v>254.5875093574908</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>140.293783378727</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>111.3145178010429</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>282.7616822972634</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.73835744761504</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.4443587762203</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>285.9536173888162</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>80.33532108510798</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>54.74153010489438</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.44435877622112</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>246.1696532646369</v>
+        <v>228.2070588100286</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>106.6075596444462</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>69.82444560763605</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>285.9536173888164</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>394.4171526423961</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>99.00273129754095</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,13 +25633,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>340.1600152256216</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>229.6872875413952</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>113.4871194305369</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>277.9630219615125</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>14.98128517850474</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>253.47197625888</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.393603578158974</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>151.6391547027496</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90180.68573184809</v>
+        <v>90180.68573184867</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396231.7619965945</v>
+        <v>396231.7619965944</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>396231.7619965946</v>
+        <v>396231.7619965948</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>396231.7619965945</v>
+        <v>396231.7619965946</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>396231.7619965944</v>
+        <v>396231.7619965946</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>396231.7619965946</v>
+        <v>396231.7619965945</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396231.7619965946</v>
+        <v>396231.7619965945</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646944</v>
+        <v>38163.29078646969</v>
       </c>
       <c r="E2" t="n">
         <v>173027.328430899</v>
@@ -26328,19 +26328,19 @@
         <v>173027.3284308991</v>
       </c>
       <c r="G2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="H2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="I2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="J2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="K2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="L2" t="n">
         <v>173027.328430899</v>
@@ -26349,13 +26349,13 @@
         <v>173027.328430899</v>
       </c>
       <c r="N2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="O2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="P2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730574</v>
+        <v>117708.4675730581</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180447</v>
+        <v>439858.2450180438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310186</v>
+        <v>30139.06600310202</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597482</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7018.587809371816</v>
+        <v>7018.587809371856</v>
       </c>
       <c r="E4" t="n">
         <v>19185.36025012661</v>
       </c>
       <c r="F4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="G4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="H4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="I4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="J4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="K4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012663</v>
       </c>
       <c r="L4" t="n">
         <v>19185.36025012661</v>
@@ -26453,13 +26453,13 @@
         <v>19185.36025012662</v>
       </c>
       <c r="N4" t="n">
+        <v>19185.36025012662</v>
+      </c>
+      <c r="O4" t="n">
         <v>19185.36025012663</v>
       </c>
-      <c r="O4" t="n">
-        <v>19185.36025012662</v>
-      </c>
       <c r="P4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012663</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239233</v>
+        <v>42922.56227239239</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129486.3268683521</v>
+        <v>-130653.2256645038</v>
       </c>
       <c r="E6" t="n">
-        <v>-332067.3580469101</v>
+        <v>-332621.2384901312</v>
       </c>
       <c r="F6" t="n">
-        <v>107790.8869711347</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="G6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279126</v>
       </c>
       <c r="H6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="I6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="J6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="K6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="L6" t="n">
-        <v>77651.82096803277</v>
+        <v>77097.94052481065</v>
       </c>
       <c r="M6" t="n">
-        <v>-9583.694588613551</v>
+        <v>-10137.57503183524</v>
       </c>
       <c r="N6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="O6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
       <c r="P6" t="n">
-        <v>107790.8869711346</v>
+        <v>107237.0065279127</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480436</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26755,31 +26755,31 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,34 +26795,34 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619341</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480436</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184168</v>
+        <v>372.4514459184161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424611</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194738</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529821</v>
+        <v>0.3788964107529845</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623979</v>
+        <v>3.880372866624004</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555436</v>
+        <v>14.60740387555445</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214594</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931968</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990127</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846296</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168153</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725655</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.4857774867923</v>
+        <v>54.48577748679266</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670112</v>
+        <v>40.91654977670139</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196203</v>
+        <v>23.80085166196218</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033588</v>
+        <v>8.634101960033643</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65861903807118</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023856</v>
+        <v>0.03031171286023876</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250509</v>
+        <v>0.2027274522250522</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857729</v>
+        <v>1.957920393857741</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888814</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780624</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688465</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211029</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526837</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286532</v>
+        <v>52.72603153286566</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619445</v>
+        <v>48.23401798619476</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006257</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542931</v>
+        <v>25.87798144542947</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779746</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531096</v>
+        <v>3.765573509531121</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457092</v>
+        <v>0.8171338973457145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322704</v>
+        <v>0.01333733238322712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889914</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540307</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.11115729564349</v>
+        <v>5.111157295643523</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323517</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055737</v>
+        <v>19.74624856055749</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207788</v>
+        <v>25.26839976207804</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803527</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063086</v>
+        <v>26.00849781063103</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547309</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333765</v>
+        <v>20.55587565333778</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839546</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517741</v>
+        <v>7.642014505517791</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083604</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075088</v>
+        <v>0.7261922397075135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308635</v>
+        <v>0.009270539230308695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,10 +32071,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32083,7 +32083,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,10 +32177,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32806,19 +32806,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33043,19 +33043,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33271,28 +33271,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699034</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,7 +33730,7 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,16 +34204,16 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642296</v>
+        <v>14.19478239642305</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214593</v>
+        <v>32.1583592421461</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931966</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990129</v>
+        <v>59.79269533990164</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462962</v>
+        <v>66.53089438463007</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168152</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725657</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.4857774867923</v>
+        <v>54.48577748679264</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670112</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196204</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020962</v>
+        <v>33.30681320020967</v>
       </c>
       <c r="J9" t="n">
-        <v>25.46317132532807</v>
+        <v>25.46317132532832</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688464</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211029</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526836</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286533</v>
+        <v>52.72603153286565</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619446</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006258</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542933</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424604</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143236</v>
+        <v>34.47009262506355</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055738</v>
+        <v>19.74624856055749</v>
       </c>
       <c r="L10" t="n">
-        <v>37.46617022576328</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803526</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063087</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254731</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="P10" t="n">
-        <v>119.0839105424604</v>
+        <v>20.55587565333781</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424604</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,19 +35415,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>170.8810658749147</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712365</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35740,7 +35740,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>170.8810658749148</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712378</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35889,7 +35889,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221541</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36141,10 +36141,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>260.4234789221537</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>300.8399982398713</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>147.5459694702542</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>266.5900650540088</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>277.15996745235</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,13 +36849,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36919,7 +36919,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>324.3780935581794</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M34" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>260.4234789221537</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785894</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562342</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>388.9936461616018</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37554,7 +37554,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>82.06344355749445</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
         <v>240.36368292423</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415859</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,19 +37946,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512696</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>266.5900650540084</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
